--- a/.AA DOCS  MODIFICADOS.xlsx
+++ b/.AA DOCS  MODIFICADOS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>CARPETA DESTINO</t>
   </si>
@@ -25,13 +25,40 @@
     <t>seguimiento/graduado</t>
   </si>
   <si>
-    <t>imprimirGraduado.php</t>
-  </si>
-  <si>
     <t>ESTADO</t>
   </si>
   <si>
     <t>iniciado</t>
+  </si>
+  <si>
+    <t>asignarExpedienteAlumno.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seguimiento </t>
+  </si>
+  <si>
+    <t>eliminarAlumno.php</t>
+  </si>
+  <si>
+    <t>listo?</t>
+  </si>
+  <si>
+    <t>eliminarTelefonosAlumno.php</t>
+  </si>
+  <si>
+    <t>seguimiento</t>
+  </si>
+  <si>
+    <t>guardarExpediente.php</t>
+  </si>
+  <si>
+    <t>guardarExpedientesCompletos.php</t>
+  </si>
+  <si>
+    <t>guardarFechas.php</t>
+  </si>
+  <si>
+    <t>duda  renglon 319</t>
   </si>
 </sst>
 </file>
@@ -373,20 +400,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="33.625" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,18 +421,73 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
